--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\PIX\PIXFramework\REFramework_Queue-main\REFramework_Queue-main_NEWRG\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\GitHub\SBZalesky_PIX_apiRG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E587F2-308F-48EA-8D92-3778C7112333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7914C7E-7439-4DD4-A13B-A913817A328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Имя</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Начало темы письма</t>
   </si>
   <si>
-    <t>PathRequest</t>
-  </si>
-  <si>
-    <t>IN\Request.xlsx</t>
-  </si>
-  <si>
-    <t>Путь до файла с входными данными</t>
-  </si>
-  <si>
     <t>smtp.yandex.ru</t>
   </si>
   <si>
@@ -109,15 +100,6 @@
   </si>
   <si>
     <t>ipaktop@gmail.com</t>
-  </si>
-  <si>
-    <t>MainRG_URL</t>
-  </si>
-  <si>
-    <t>Главная страница Рив Гош</t>
-  </si>
-  <si>
-    <t>https://rivegauche.ru/</t>
   </si>
 </sst>
 </file>
@@ -216,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -266,7 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -550,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -578,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -612,24 +593,24 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -641,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -653,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -664,15 +645,9 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,15 +663,8 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2371,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
